--- a/tu_moi_info.xlsx
+++ b/tu_moi_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\get_name_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phanx\Downloads\get_name_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9E7DF1-063A-41F8-859C-68F3F8405C77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3822405-9A16-4514-85B6-F2B02315B7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -724,15 +724,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="30.7265625" customWidth="1"/>
-    <col min="9" max="9" width="43.26953125" customWidth="1"/>
+    <col min="2" max="2" width="63.88671875" customWidth="1"/>
+    <col min="3" max="3" width="83.88671875" customWidth="1"/>
+    <col min="8" max="8" width="30.77734375" customWidth="1"/>
+    <col min="9" max="9" width="43.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -772,7 +776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -783,7 +787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -794,7 +798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -805,7 +809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -816,7 +820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -827,7 +831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -838,7 +842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -849,7 +853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -860,7 +864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -871,7 +875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -882,7 +886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -893,7 +897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -904,7 +908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -915,7 +919,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -926,7 +930,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -937,7 +941,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -948,7 +952,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -959,7 +963,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -970,7 +974,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -981,7 +985,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -992,7 +996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1003,7 +1007,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1014,7 +1018,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1025,7 +1029,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1036,7 +1040,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1058,7 +1062,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -1069,7 +1073,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1080,7 +1084,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -1091,7 +1095,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -1102,7 +1106,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -1113,7 +1117,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -1135,7 +1139,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -1146,7 +1150,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -1168,7 +1172,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -1179,7 +1183,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -1190,7 +1194,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -1201,7 +1205,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -1212,7 +1216,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -1223,7 +1227,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -1234,7 +1238,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -1245,7 +1249,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -1256,7 +1260,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -1278,7 +1282,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -1289,7 +1293,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -1300,7 +1304,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>107</v>
       </c>

--- a/tu_moi_info.xlsx
+++ b/tu_moi_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\get_name_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\create_excel_file_for_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9E7DF1-063A-41F8-859C-68F3F8405C77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3504F9DD-EC9E-46ED-8682-413075C9174B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -49,304 +49,256 @@
     <t>chu_de_id</t>
   </si>
   <si>
+    <t>abide_by</t>
+  </si>
+  <si>
+    <t>tu_moi-abide_by-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>tu_moi-ability-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>abundant</t>
+  </si>
+  <si>
+    <t>tu_moi-abundant-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t>tu_moi-accept-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>tu_moi-access-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>accommodate</t>
+  </si>
+  <si>
+    <t>tu_moi-accommodate-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>accomplishment</t>
+  </si>
+  <si>
+    <t>tu_moi-accomplishment-300823102503.jpg</t>
+  </si>
+  <si>
     <t>accounting</t>
   </si>
   <si>
-    <t>tu_moi-accounting-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>airlines</t>
-  </si>
-  <si>
-    <t>tu_moi-airlines-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>apply_and_interviewing</t>
-  </si>
-  <si>
-    <t>tu_moi-apply_and_interviewing-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>banking</t>
-  </si>
-  <si>
-    <t>tu_moi-banking-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>board_meeting</t>
-  </si>
-  <si>
-    <t>tu_moi-board_meeting-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>business_planning</t>
-  </si>
-  <si>
-    <t>tu_moi-business_planning-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>car_rentals</t>
-  </si>
-  <si>
-    <t>tu_moi-car_rentals-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>computers_and_the_internet</t>
-  </si>
-  <si>
-    <t>tu_moi-computers_and_the_internet-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>conferences</t>
-  </si>
-  <si>
-    <t>tu_moi-conferences-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>contracts</t>
-  </si>
-  <si>
-    <t>tu_moi-contracts-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>tu_moi-cook-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>correspondence</t>
-  </si>
-  <si>
-    <t>tu_moi-correspondence-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>dentists_office</t>
-  </si>
-  <si>
-    <t>tu_moi-dentists_office-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>doctors_office</t>
-  </si>
-  <si>
-    <t>tu_moi-doctors_office-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>eating_out</t>
-  </si>
-  <si>
-    <t>tu_moi-eating_out-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>electronics</t>
-  </si>
-  <si>
-    <t>tu_moi-electronics-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>events</t>
-  </si>
-  <si>
-    <t>tu_moi-events-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>financial_statements</t>
-  </si>
-  <si>
-    <t>tu_moi-financial_statements-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>general_travel</t>
-  </si>
-  <si>
-    <t>tu_moi-general_travel-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>tu_moi-health-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>hiring_and_training</t>
-  </si>
-  <si>
-    <t>tu_moi-hiring_and_training-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>hopitals</t>
-  </si>
-  <si>
-    <t>tu_moi-hopitals-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>hotels</t>
-  </si>
-  <si>
-    <t>tu_moi-hotels-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>inventory</t>
-  </si>
-  <si>
-    <t>tu_moi-inventory-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>investments</t>
-  </si>
-  <si>
-    <t>tu_moi-investments-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>invoices</t>
-  </si>
-  <si>
-    <t>tu_moi-invoices-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>job_ads_and_recruitment</t>
-  </si>
-  <si>
-    <t>tu_moi-job_ads_and_recruitment-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>marketing</t>
-  </si>
-  <si>
-    <t>tu_moi-marketing-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>tu_moi-media-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>movies</t>
-  </si>
-  <si>
-    <t>tu_moi-movies-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>museums</t>
-  </si>
-  <si>
-    <t>tu_moi-museums-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>tu_moi-music-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>office_procedures</t>
-  </si>
-  <si>
-    <t>tu_moi-office_procedures-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>office_technology</t>
-  </si>
-  <si>
-    <t>tu_moi-office_technology-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>ordering_lunch</t>
-  </si>
-  <si>
-    <t>tu_moi-ordering_lunch-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>ordering_supplies</t>
-  </si>
-  <si>
-    <t>tu_moi-ordering_supplies-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>pharmacy</t>
-  </si>
-  <si>
-    <t>tu_moi-pharmacy-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>product_development</t>
-  </si>
-  <si>
-    <t>tu_moi-product_development-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>promotion</t>
-  </si>
-  <si>
-    <t>tu_moi-promotion-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>property_and_departments</t>
-  </si>
-  <si>
-    <t>tu_moi-property_and_departments-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>quality_control</t>
-  </si>
-  <si>
-    <t>tu_moi-quality_control-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>renting_and_leasing</t>
-  </si>
-  <si>
-    <t>tu_moi-renting_and_leasing-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>salaries_and_benefits</t>
-  </si>
-  <si>
-    <t>tu_moi-salaries_and_benefits-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>selecting_a_restaurant</t>
-  </si>
-  <si>
-    <t>tu_moi-selecting_a_restaurant-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>shipping</t>
-  </si>
-  <si>
-    <t>tu_moi-shipping-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>tu_moi-shopping-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>taxes</t>
-  </si>
-  <si>
-    <t>tu_moi-taxes-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>theater</t>
-  </si>
-  <si>
-    <t>tu_moi-theater-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>trains</t>
-  </si>
-  <si>
-    <t>tu_moi-trains-250823163019.jpg</t>
-  </si>
-  <si>
-    <t>warranties</t>
-  </si>
-  <si>
-    <t>tu_moi-warranties-250823163019.jpg</t>
+    <t>tu_moi-accounting-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>accumulate</t>
+  </si>
+  <si>
+    <t>tu_moi-accumulate-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>accurately</t>
+  </si>
+  <si>
+    <t>tu_moi-accurately-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>accustom to</t>
+  </si>
+  <si>
+    <t>tu_moi-accustom to-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>achievement</t>
+  </si>
+  <si>
+    <t>tu_moi-achievement-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>acquire</t>
+  </si>
+  <si>
+    <t>tu_moi-acquire-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>tu_moi-action-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>tu_moi-address-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>adhere to</t>
+  </si>
+  <si>
+    <t>tu_moi-adhere to-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>adjacent</t>
+  </si>
+  <si>
+    <t>tu_moi-adjacent-300823102503.gif</t>
+  </si>
+  <si>
+    <t>adjustment</t>
+  </si>
+  <si>
+    <t>tu_moi-adjustment-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>admire</t>
+  </si>
+  <si>
+    <t>tu_moi-admire-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>admit</t>
+  </si>
+  <si>
+    <t>tu_moi-admit-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>tu_moi-advanced-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>tu_moi-affordable-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>agenda</t>
+  </si>
+  <si>
+    <t>tu_moi-agenda-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t>tu_moi-agent-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>aggressively</t>
+  </si>
+  <si>
+    <t>tu_moi-aggressively-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>agreement</t>
+  </si>
+  <si>
+    <t>tu_moi-agreement-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>allocate</t>
+  </si>
+  <si>
+    <t>tu_moi-allocate-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>tu_moi-allow-300823102503.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-abide_by-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-ability-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-abundant-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-accept-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-access-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-accommodate-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-accomplishment-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-accounting-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-accumulate-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-accurately-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-accustom_to-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-achievement-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-acquire-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-action-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-address-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-adhere to-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-adjacent-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-adjustment-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-admire-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-admit-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-advanced-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-affordable-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-agenda-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-agent-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-aggressively-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-agreement-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-allocate-300823102503.mp3</t>
+  </si>
+  <si>
+    <t>tu_moi-allow-300823102503.mp3</t>
   </si>
 </sst>
 </file>
@@ -722,14 +674,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="30.7265625" customWidth="1"/>
-    <col min="9" max="9" width="43.26953125" customWidth="1"/>
+    <col min="2" max="2" width="38.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="38.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -769,7 +724,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>65</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -780,7 +738,10 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>66</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -791,7 +752,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>67</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -802,7 +766,10 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>68</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -813,7 +780,10 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>69</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -824,7 +794,10 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -835,7 +808,10 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>71</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -846,7 +822,10 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>72</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -857,7 +836,10 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>73</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -868,7 +850,10 @@
         <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>74</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -879,7 +864,10 @@
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>75</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -890,7 +878,10 @@
         <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>76</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -901,7 +892,10 @@
         <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>77</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -912,7 +906,10 @@
         <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>78</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -923,10 +920,13 @@
         <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -934,10 +934,13 @@
         <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -945,10 +948,13 @@
         <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -956,10 +962,13 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -967,10 +976,13 @@
         <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -978,10 +990,13 @@
         <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -989,10 +1004,13 @@
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1000,10 +1018,13 @@
         <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1011,10 +1032,13 @@
         <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1022,10 +1046,13 @@
         <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1033,10 +1060,13 @@
         <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1044,10 +1074,13 @@
         <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1055,10 +1088,13 @@
         <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="I28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -1066,249 +1102,10 @@
         <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" t="s">
         <v>92</v>
       </c>
-      <c r="F43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" t="s">
-        <v>96</v>
-      </c>
-      <c r="F45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" t="s">
-        <v>100</v>
-      </c>
-      <c r="F47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49" t="s">
-        <v>104</v>
-      </c>
-      <c r="F49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" t="s">
-        <v>108</v>
+      <c r="I29">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
